--- a/Code/Results/Cases/Case_2_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.56901438499917</v>
+        <v>20.54580371028513</v>
       </c>
       <c r="C2">
-        <v>6.329761409878857</v>
+        <v>4.119912546833829</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.750505666039056</v>
+        <v>9.869214871283734</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.170431519097042</v>
+        <v>3.780652580904117</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.92052267176362</v>
+        <v>16.88971373102335</v>
       </c>
       <c r="L2">
-        <v>6.269540659560809</v>
+        <v>10.19306339876419</v>
       </c>
       <c r="M2">
-        <v>12.09954994902055</v>
+        <v>17.95538585512775</v>
       </c>
       <c r="N2">
-        <v>18.94083743871827</v>
+        <v>26.31208829589515</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.7685667986336</v>
+        <v>20.42907201227153</v>
       </c>
       <c r="C3">
-        <v>5.904244911164607</v>
+        <v>3.91594703968447</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.746107864426683</v>
+        <v>9.884288074501368</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.179376241631624</v>
+        <v>3.7837907481538</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.32369257259137</v>
+        <v>16.81226962451622</v>
       </c>
       <c r="L3">
-        <v>6.204791769234584</v>
+        <v>10.20477477605824</v>
       </c>
       <c r="M3">
-        <v>11.82287455358626</v>
+        <v>17.95306707913999</v>
       </c>
       <c r="N3">
-        <v>19.02949953496751</v>
+        <v>26.33793667670805</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27091077924877</v>
+        <v>20.36210992324326</v>
       </c>
       <c r="C4">
-        <v>5.630336631297691</v>
+        <v>3.784298793765827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.745275198054188</v>
+        <v>9.894451095813626</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.185007862282901</v>
+        <v>3.785817638587847</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.95430014663964</v>
+        <v>16.76853815194037</v>
       </c>
       <c r="L4">
-        <v>6.167876467276632</v>
+        <v>10.21336237205222</v>
       </c>
       <c r="M4">
-        <v>11.65745384526899</v>
+        <v>17.95480703291594</v>
       </c>
       <c r="N4">
-        <v>19.08898479759121</v>
+        <v>26.35552557178055</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.06681289936304</v>
+        <v>20.33602939430222</v>
       </c>
       <c r="C5">
-        <v>5.515500528803972</v>
+        <v>3.729066130111713</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.745396768387538</v>
+        <v>9.898821322807953</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.187339561553677</v>
+        <v>3.786668859426888</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.80321852579253</v>
+        <v>16.75169090944246</v>
       </c>
       <c r="L5">
-        <v>6.153539853657117</v>
+        <v>10.21721331548569</v>
       </c>
       <c r="M5">
-        <v>11.59121026995259</v>
+        <v>17.9563127936848</v>
       </c>
       <c r="N5">
-        <v>19.11445260419906</v>
+        <v>26.36312498087111</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.03285235668149</v>
+        <v>20.33177225970848</v>
       </c>
       <c r="C6">
-        <v>5.496236830512641</v>
+        <v>3.719799975284016</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.745444540899405</v>
+        <v>9.899560820647864</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.187729006347545</v>
+        <v>3.786811731468743</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.77810422681725</v>
+        <v>16.74895260631894</v>
       </c>
       <c r="L6">
-        <v>6.151201714220965</v>
+        <v>10.21787399203838</v>
       </c>
       <c r="M6">
-        <v>11.58028237128424</v>
+        <v>17.95661097156062</v>
       </c>
       <c r="N6">
-        <v>19.1187544658648</v>
+        <v>26.36441293059614</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.26816313801855</v>
+        <v>20.36175327676901</v>
       </c>
       <c r="C7">
-        <v>5.628800980005448</v>
+        <v>3.783560283657588</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.745274982823767</v>
+        <v>9.894509107653754</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.185039157372597</v>
+        <v>3.785829016109354</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.95226457223528</v>
+        <v>16.76830698526197</v>
       </c>
       <c r="L7">
-        <v>6.167680267990162</v>
+        <v>10.21341288407422</v>
       </c>
       <c r="M7">
-        <v>11.65655567705697</v>
+        <v>17.95482411297882</v>
       </c>
       <c r="N7">
-        <v>19.08932334981271</v>
+        <v>26.35562631207249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.29444246389952</v>
+        <v>20.50459066075792</v>
       </c>
       <c r="C8">
-        <v>6.185641953376809</v>
+        <v>4.050931087711968</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.748596338859858</v>
+        <v>9.874223886053841</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.17348774982772</v>
+        <v>3.781713911251083</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.7154489841385</v>
+        <v>16.8622266054066</v>
       </c>
       <c r="L8">
-        <v>6.246621178785199</v>
+        <v>10.19681171675575</v>
       </c>
       <c r="M8">
-        <v>12.00325374388803</v>
+        <v>17.95393051993284</v>
       </c>
       <c r="N8">
-        <v>18.97033449087228</v>
+        <v>26.32064416008816</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.24890160327594</v>
+        <v>20.82101308743575</v>
       </c>
       <c r="C9">
-        <v>7.179337840471327</v>
+        <v>4.523406670466844</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.770338443756124</v>
+        <v>9.841632365036142</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.151860228450836</v>
+        <v>3.774433896804005</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.18198667569678</v>
+        <v>17.07606671768997</v>
       </c>
       <c r="L9">
-        <v>6.424297069166299</v>
+        <v>10.1753297668309</v>
       </c>
       <c r="M9">
-        <v>12.71662670961531</v>
+        <v>17.97721693888031</v>
       </c>
       <c r="N9">
-        <v>18.77910912273698</v>
+        <v>26.26568386297682</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.64035520499754</v>
+        <v>21.07408574796472</v>
       </c>
       <c r="C10">
-        <v>7.85274415883149</v>
+        <v>4.837950620878673</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.79619592090899</v>
+        <v>9.822046439261102</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.136469978560553</v>
+        <v>3.769560942700664</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.23422551292775</v>
+        <v>17.25031604916285</v>
       </c>
       <c r="L10">
-        <v>6.569253282355316</v>
+        <v>10.16628264767652</v>
       </c>
       <c r="M10">
-        <v>13.25897829175675</v>
+        <v>18.00948670124379</v>
       </c>
       <c r="N10">
-        <v>18.66747471483848</v>
+        <v>26.23363288367631</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.26262316086505</v>
+        <v>21.19332722464831</v>
       </c>
       <c r="C11">
-        <v>8.147627211146395</v>
+        <v>4.973831150373456</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.810246526220332</v>
+        <v>9.814077936865523</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.129546000994334</v>
+        <v>3.767446171777591</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.70659685849212</v>
+        <v>17.33308382382245</v>
       </c>
       <c r="L11">
-        <v>6.638440980972097</v>
+        <v>10.16362532901947</v>
       </c>
       <c r="M11">
-        <v>13.50933686377353</v>
+        <v>18.02742999511438</v>
       </c>
       <c r="N11">
-        <v>18.62376158892792</v>
+        <v>26.22086336324024</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.4966815623532</v>
+        <v>21.23904070273553</v>
       </c>
       <c r="C12">
-        <v>8.257723436449643</v>
+        <v>5.024240956938788</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.815908732565526</v>
+        <v>9.811195415178474</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.126932289218648</v>
+        <v>3.766659931180399</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.8845353145986</v>
+        <v>17.36490873305801</v>
       </c>
       <c r="L12">
-        <v>6.665117816537306</v>
+        <v>10.1628283016076</v>
       </c>
       <c r="M12">
-        <v>13.60464801159305</v>
+        <v>18.03469081832289</v>
       </c>
       <c r="N12">
-        <v>18.60830168402748</v>
+        <v>26.21628846932314</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.44634344397435</v>
+        <v>21.2291711440084</v>
       </c>
       <c r="C13">
-        <v>8.234080726652438</v>
+        <v>5.013430906068853</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.81467387411742</v>
+        <v>9.811810220610687</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.127494880433777</v>
+        <v>3.766828615174184</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.84625501559498</v>
+        <v>17.35803354958351</v>
       </c>
       <c r="L13">
-        <v>6.659351089422383</v>
+        <v>10.16299065753143</v>
       </c>
       <c r="M13">
-        <v>13.58409871927055</v>
+        <v>18.03310639590314</v>
       </c>
       <c r="N13">
-        <v>18.61158131393983</v>
+        <v>26.21726215786497</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.28191106562287</v>
+        <v>21.19707708174818</v>
       </c>
       <c r="C14">
-        <v>8.156715876512823</v>
+        <v>4.977999385637158</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.810705438781411</v>
+        <v>9.813838087068131</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.129330821388911</v>
+        <v>3.767381195623032</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.7212548477311</v>
+        <v>17.33569252993762</v>
       </c>
       <c r="L14">
-        <v>6.640626077029794</v>
+        <v>10.16355556640201</v>
       </c>
       <c r="M14">
-        <v>13.51716809470195</v>
+        <v>18.02801802606039</v>
       </c>
       <c r="N14">
-        <v>18.62246731228602</v>
+        <v>26.22048175864741</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.18098505605893</v>
+        <v>21.17749039162855</v>
       </c>
       <c r="C15">
-        <v>8.109125709636338</v>
+        <v>4.956160216025872</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.808319526483796</v>
+        <v>9.815097780757176</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.130456372985518</v>
+        <v>3.767721562992534</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.64456598258527</v>
+        <v>17.32207021790115</v>
       </c>
       <c r="L15">
-        <v>6.629218910565507</v>
+        <v>10.16392882429321</v>
       </c>
       <c r="M15">
-        <v>13.47623668480834</v>
+        <v>18.02496184917377</v>
       </c>
       <c r="N15">
-        <v>18.62928010141336</v>
+        <v>26.22248780912247</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.59946862152762</v>
+        <v>21.06637311401879</v>
       </c>
       <c r="C16">
-        <v>7.833248810330523</v>
+        <v>4.828924677221901</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.795324769961371</v>
+        <v>9.822586108050277</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.136923792389013</v>
+        <v>3.769701192420932</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.20322472517083</v>
+        <v>17.24497566336962</v>
       </c>
       <c r="L16">
-        <v>6.564797856780777</v>
+        <v>10.16648561614811</v>
       </c>
       <c r="M16">
-        <v>13.24268826731658</v>
+        <v>18.00837947052877</v>
       </c>
       <c r="N16">
-        <v>18.67048009883923</v>
+        <v>26.23450386045345</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.23994235458299</v>
+        <v>20.99923787274719</v>
       </c>
       <c r="C17">
-        <v>7.661126244268941</v>
+        <v>4.749016874373043</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.787947524428253</v>
+        <v>9.827420764270698</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.140909166236515</v>
+        <v>3.770941685157272</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.93083037369452</v>
+        <v>17.19856274941753</v>
       </c>
       <c r="L17">
-        <v>6.526115801677008</v>
+        <v>10.16842731633626</v>
       </c>
       <c r="M17">
-        <v>13.10033033712725</v>
+        <v>17.99904043714672</v>
       </c>
       <c r="N17">
-        <v>18.69761769318486</v>
+        <v>26.24233926580072</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.03214410700193</v>
+        <v>20.96101304663819</v>
       </c>
       <c r="C18">
-        <v>7.561042774197204</v>
+        <v>4.70237802440548</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.783918872718488</v>
+        <v>9.830290146502611</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.143208893669507</v>
+        <v>3.771664785784516</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.77356366661916</v>
+        <v>17.17219809839073</v>
       </c>
       <c r="L18">
-        <v>6.504171783368466</v>
+        <v>10.16968142039918</v>
       </c>
       <c r="M18">
-        <v>13.01879290022043</v>
+        <v>17.99397627528864</v>
       </c>
       <c r="N18">
-        <v>18.71388691154904</v>
+        <v>26.24701639259055</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.96161590260081</v>
+        <v>20.94813867034717</v>
       </c>
       <c r="C19">
-        <v>7.52696798693303</v>
+        <v>4.68647077123947</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.782591321992223</v>
+        <v>9.831276901103701</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.143988902595067</v>
+        <v>3.77191126696906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.7202155601595</v>
+        <v>17.16332892193008</v>
       </c>
       <c r="L19">
-        <v>6.49679399679471</v>
+        <v>10.17012963094391</v>
       </c>
       <c r="M19">
-        <v>12.99124535896253</v>
+        <v>17.9923145258307</v>
       </c>
       <c r="N19">
-        <v>18.71950661105921</v>
+        <v>26.24862924657545</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.27831930803611</v>
+        <v>21.00634444690668</v>
       </c>
       <c r="C20">
-        <v>7.67956055162477</v>
+        <v>4.757593437302785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.788710552441105</v>
+        <v>9.826896938131416</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.1404841654353</v>
+        <v>3.770808639432305</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.9598888908216</v>
+        <v>17.20346939217711</v>
       </c>
       <c r="L20">
-        <v>6.530201950925796</v>
+        <v>10.1682064132198</v>
       </c>
       <c r="M20">
-        <v>13.11544923625818</v>
+        <v>18.00000280033593</v>
       </c>
       <c r="N20">
-        <v>18.69465997313006</v>
+        <v>26.2414875349216</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.33025187872892</v>
+        <v>21.20648897226614</v>
       </c>
       <c r="C21">
-        <v>8.179481746581574</v>
+        <v>4.988434907975273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.811861689959199</v>
+        <v>9.813238793270418</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.128791361304685</v>
+        <v>3.767218494398906</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.75799600381396</v>
+        <v>17.34224170341858</v>
       </c>
       <c r="L21">
-        <v>6.64611303306943</v>
+        <v>10.16338396414134</v>
       </c>
       <c r="M21">
-        <v>13.53681360101156</v>
+        <v>18.02949998161143</v>
       </c>
       <c r="N21">
-        <v>18.61923950537176</v>
+        <v>26.21952900778541</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.00854428585158</v>
+        <v>21.34053924500842</v>
       </c>
       <c r="C22">
-        <v>8.497102777774764</v>
+        <v>5.133208309662484</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.828989674415986</v>
+        <v>9.805098981159858</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.121195973550307</v>
+        <v>3.764957055586394</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.27414221652039</v>
+        <v>17.43573981846555</v>
       </c>
       <c r="L22">
-        <v>6.724653785449348</v>
+        <v>10.16145158083702</v>
       </c>
       <c r="M22">
-        <v>13.81514765438778</v>
+        <v>18.05149305713548</v>
       </c>
       <c r="N22">
-        <v>18.57636239457244</v>
+        <v>26.20669721246666</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.6473725758945</v>
+        <v>21.26870832277119</v>
       </c>
       <c r="C23">
-        <v>8.328387800505672</v>
+        <v>5.056500062636947</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.819660969946228</v>
+        <v>9.809371504180717</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.125246535851944</v>
+        <v>3.766156284883245</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.99916808920125</v>
+        <v>17.38558881379089</v>
       </c>
       <c r="L23">
-        <v>6.682476335568902</v>
+        <v>10.16237152392258</v>
       </c>
       <c r="M23">
-        <v>13.66632869429892</v>
+        <v>18.03950767710933</v>
       </c>
       <c r="N23">
-        <v>18.59863218476077</v>
+        <v>26.21340666985983</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.26097251569892</v>
+        <v>21.0031304031448</v>
       </c>
       <c r="C24">
-        <v>7.671229920203023</v>
+        <v>4.753718149129639</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.788364926132217</v>
+        <v>9.827133479965132</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.140676281664002</v>
+        <v>3.770868758483073</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.94675359922742</v>
+        <v>17.20125010453411</v>
       </c>
       <c r="L24">
-        <v>6.52835368532097</v>
+        <v>10.16830585427646</v>
       </c>
       <c r="M24">
-        <v>13.10861302724541</v>
+        <v>17.99956676574413</v>
       </c>
       <c r="N24">
-        <v>18.69599508509198</v>
+        <v>26.24187206527746</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.72747974242033</v>
+        <v>20.73167732949463</v>
       </c>
       <c r="C25">
-        <v>6.920726027954931</v>
+        <v>4.401254679566022</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.762766271816278</v>
+        <v>9.84968207583465</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.157613601992995</v>
+        <v>3.776319387187605</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.7892929188335</v>
+        <v>17.01513418340499</v>
       </c>
       <c r="L25">
-        <v>6.373734090418797</v>
+        <v>10.17995706918104</v>
       </c>
       <c r="M25">
-        <v>12.52029903256314</v>
+        <v>17.96824597802708</v>
       </c>
       <c r="N25">
-        <v>18.82602340202377</v>
+        <v>26.27909047383874</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.54580371028513</v>
+        <v>17.56901438499913</v>
       </c>
       <c r="C2">
-        <v>4.119912546833829</v>
+        <v>6.329761409878941</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.869214871283734</v>
+        <v>5.750505666039054</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.780652580904117</v>
+        <v>2.17043151909744</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.88971373102335</v>
+        <v>13.9205226717636</v>
       </c>
       <c r="L2">
-        <v>10.19306339876419</v>
+        <v>6.269540659560794</v>
       </c>
       <c r="M2">
-        <v>17.95538585512775</v>
+        <v>12.09954994902052</v>
       </c>
       <c r="N2">
-        <v>26.31208829589515</v>
+        <v>18.94083743871821</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.42907201227153</v>
+        <v>16.76856679863358</v>
       </c>
       <c r="C3">
-        <v>3.91594703968447</v>
+        <v>5.904244911164305</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.884288074501368</v>
+        <v>5.746107864426685</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.7837907481538</v>
+        <v>2.179376241631489</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.81226962451622</v>
+        <v>13.32369257259141</v>
       </c>
       <c r="L3">
-        <v>10.20477477605824</v>
+        <v>6.204791769234673</v>
       </c>
       <c r="M3">
-        <v>17.95306707913999</v>
+        <v>11.82287455358629</v>
       </c>
       <c r="N3">
-        <v>26.33793667670805</v>
+        <v>19.02949953496759</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.36210992324326</v>
+        <v>16.27091077924863</v>
       </c>
       <c r="C4">
-        <v>3.784298793765827</v>
+        <v>5.630336631297698</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.894451095813626</v>
+        <v>5.745275198054184</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.785817638587847</v>
+        <v>2.185007862282901</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.76853815194037</v>
+        <v>12.95430014663954</v>
       </c>
       <c r="L4">
-        <v>10.21336237205222</v>
+        <v>6.167876467276606</v>
       </c>
       <c r="M4">
-        <v>17.95480703291594</v>
+        <v>11.65745384526888</v>
       </c>
       <c r="N4">
-        <v>26.35552557178055</v>
+        <v>19.08898479759106</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.33602939430222</v>
+        <v>16.06681289936311</v>
       </c>
       <c r="C5">
-        <v>3.729066130111713</v>
+        <v>5.515500528803894</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.898821322807953</v>
+        <v>5.745396768387535</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.786668859426888</v>
+        <v>2.187339561553678</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.75169090944246</v>
+        <v>12.80321852579256</v>
       </c>
       <c r="L5">
-        <v>10.21721331548569</v>
+        <v>6.153539853657164</v>
       </c>
       <c r="M5">
-        <v>17.9563127936848</v>
+        <v>11.59121026995266</v>
       </c>
       <c r="N5">
-        <v>26.36312498087111</v>
+        <v>19.11445260419917</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.33177225970848</v>
+        <v>16.03285235668141</v>
       </c>
       <c r="C6">
-        <v>3.719799975284016</v>
+        <v>5.496236830512648</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.899560820647864</v>
+        <v>5.745444540899398</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.786811731468743</v>
+        <v>2.187729006347679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.74895260631894</v>
+        <v>12.77810422681722</v>
       </c>
       <c r="L6">
-        <v>10.21787399203838</v>
+        <v>6.151201714220958</v>
       </c>
       <c r="M6">
-        <v>17.95661097156062</v>
+        <v>11.58028237128421</v>
       </c>
       <c r="N6">
-        <v>26.36441293059614</v>
+        <v>19.11875446586482</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.36175327676901</v>
+        <v>16.26816313801858</v>
       </c>
       <c r="C7">
-        <v>3.783560283657588</v>
+        <v>5.628800980005477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.894509107653754</v>
+        <v>5.745274982823761</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.785829016109354</v>
+        <v>2.185039157372465</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.76830698526197</v>
+        <v>12.95226457223531</v>
       </c>
       <c r="L7">
-        <v>10.21341288407422</v>
+        <v>6.167680267990135</v>
       </c>
       <c r="M7">
-        <v>17.95482411297882</v>
+        <v>11.656555677057</v>
       </c>
       <c r="N7">
-        <v>26.35562631207249</v>
+        <v>19.08932334981267</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50459066075792</v>
+        <v>17.2944424638995</v>
       </c>
       <c r="C8">
-        <v>4.050931087711968</v>
+        <v>6.185641953376658</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.874223886053841</v>
+        <v>5.748596338859852</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.781713911251083</v>
+        <v>2.173487749827857</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.8622266054066</v>
+        <v>13.71544898413849</v>
       </c>
       <c r="L8">
-        <v>10.19681171675575</v>
+        <v>6.246621178785267</v>
       </c>
       <c r="M8">
-        <v>17.95393051993284</v>
+        <v>12.00325374388806</v>
       </c>
       <c r="N8">
-        <v>26.32064416008816</v>
+        <v>18.97033449087226</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.82101308743575</v>
+        <v>19.24890160327591</v>
       </c>
       <c r="C9">
-        <v>4.523406670466844</v>
+        <v>7.179337840471252</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.841632365036142</v>
+        <v>5.770338443756075</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.774433896804005</v>
+        <v>2.151860228450698</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.07606671768997</v>
+        <v>15.18198667569674</v>
       </c>
       <c r="L9">
-        <v>10.1753297668309</v>
+        <v>6.424297069166294</v>
       </c>
       <c r="M9">
-        <v>17.97721693888031</v>
+        <v>12.71662670961526</v>
       </c>
       <c r="N9">
-        <v>26.26568386297682</v>
+        <v>18.77910912273692</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.07408574796472</v>
+        <v>20.64035520499757</v>
       </c>
       <c r="C10">
-        <v>4.837950620878673</v>
+        <v>7.852744158831536</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.822046439261102</v>
+        <v>5.796195920908993</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.769560942700664</v>
+        <v>2.136469978560686</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.25031604916285</v>
+        <v>16.23422551292774</v>
       </c>
       <c r="L10">
-        <v>10.16628264767652</v>
+        <v>6.569253282355339</v>
       </c>
       <c r="M10">
-        <v>18.00948670124379</v>
+        <v>13.25897829175676</v>
       </c>
       <c r="N10">
-        <v>26.23363288367631</v>
+        <v>18.66747471483847</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.19332722464831</v>
+        <v>21.26262316086504</v>
       </c>
       <c r="C11">
-        <v>4.973831150373456</v>
+        <v>8.147627211146615</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.814077936865523</v>
+        <v>5.810246526220377</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.767446171777591</v>
+        <v>2.129546000994468</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.33308382382245</v>
+        <v>16.70659685849211</v>
       </c>
       <c r="L11">
-        <v>10.16362532901947</v>
+        <v>6.638440980972103</v>
       </c>
       <c r="M11">
-        <v>18.02742999511438</v>
+        <v>13.50933686377348</v>
       </c>
       <c r="N11">
-        <v>26.22086336324024</v>
+        <v>18.62376158892777</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.23904070273553</v>
+        <v>21.49668156235318</v>
       </c>
       <c r="C12">
-        <v>5.024240956938788</v>
+        <v>8.257723436449423</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.811195415178474</v>
+        <v>5.815908732565574</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.766659931180399</v>
+        <v>2.126932289218513</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.36490873305801</v>
+        <v>16.88453531459859</v>
       </c>
       <c r="L12">
-        <v>10.1628283016076</v>
+        <v>6.665117816537351</v>
       </c>
       <c r="M12">
-        <v>18.03469081832289</v>
+        <v>13.60464801159303</v>
       </c>
       <c r="N12">
-        <v>26.21628846932314</v>
+        <v>18.60830168402734</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.2291711440084</v>
+        <v>21.4463434439744</v>
       </c>
       <c r="C13">
-        <v>5.013430906068853</v>
+        <v>8.234080726652451</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.811810220610687</v>
+        <v>5.814673874117409</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.766828615174184</v>
+        <v>2.127494880433778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.35803354958351</v>
+        <v>16.84625501559501</v>
       </c>
       <c r="L13">
-        <v>10.16299065753143</v>
+        <v>6.659351089422339</v>
       </c>
       <c r="M13">
-        <v>18.03310639590314</v>
+        <v>13.58409871927051</v>
       </c>
       <c r="N13">
-        <v>26.21726215786497</v>
+        <v>18.61158131393977</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.19707708174818</v>
+        <v>21.28191106562288</v>
       </c>
       <c r="C14">
-        <v>4.977999385637158</v>
+        <v>8.156715876512896</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.813838087068131</v>
+        <v>5.810705438781402</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.767381195623032</v>
+        <v>2.129330821388785</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.33569252993762</v>
+        <v>16.7212548477311</v>
       </c>
       <c r="L14">
-        <v>10.16355556640201</v>
+        <v>6.640626077029769</v>
       </c>
       <c r="M14">
-        <v>18.02801802606039</v>
+        <v>13.51716809470196</v>
       </c>
       <c r="N14">
-        <v>26.22048175864741</v>
+        <v>18.62246731228608</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.17749039162855</v>
+        <v>21.18098505605894</v>
       </c>
       <c r="C15">
-        <v>4.956160216025872</v>
+        <v>8.109125709636338</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.815097780757176</v>
+        <v>5.808319526483787</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.767721562992534</v>
+        <v>2.130456372985654</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.32207021790115</v>
+        <v>16.64456598258529</v>
       </c>
       <c r="L15">
-        <v>10.16392882429321</v>
+        <v>6.629218910565545</v>
       </c>
       <c r="M15">
-        <v>18.02496184917377</v>
+        <v>13.47623668480835</v>
       </c>
       <c r="N15">
-        <v>26.22248780912247</v>
+        <v>18.62928010141342</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.06637311401879</v>
+        <v>20.59946862152761</v>
       </c>
       <c r="C16">
-        <v>4.828924677221901</v>
+        <v>7.833248810330463</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.822586108050277</v>
+        <v>5.795324769961254</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.769701192420932</v>
+        <v>2.136923792389147</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.24497566336962</v>
+        <v>16.20322472517082</v>
       </c>
       <c r="L16">
-        <v>10.16648561614811</v>
+        <v>6.564797856780756</v>
       </c>
       <c r="M16">
-        <v>18.00837947052877</v>
+        <v>13.24268826731654</v>
       </c>
       <c r="N16">
-        <v>26.23450386045345</v>
+        <v>18.67048009883921</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.99923787274719</v>
+        <v>20.23994235458295</v>
       </c>
       <c r="C17">
-        <v>4.749016874373043</v>
+        <v>7.661126244269055</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.827420764270698</v>
+        <v>5.787947524428197</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.770941685157272</v>
+        <v>2.140909166236515</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.19856274941753</v>
+        <v>15.93083037369452</v>
       </c>
       <c r="L17">
-        <v>10.16842731633626</v>
+        <v>6.526115801677001</v>
       </c>
       <c r="M17">
-        <v>17.99904043714672</v>
+        <v>13.10033033712718</v>
       </c>
       <c r="N17">
-        <v>26.24233926580072</v>
+        <v>18.69761769318474</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.96101304663819</v>
+        <v>20.03214410700193</v>
       </c>
       <c r="C18">
-        <v>4.70237802440548</v>
+        <v>7.561042774197261</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.830290146502611</v>
+        <v>5.783918872718656</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.771664785784516</v>
+        <v>2.143208893669773</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.17219809839073</v>
+        <v>15.77356366661916</v>
       </c>
       <c r="L18">
-        <v>10.16968142039918</v>
+        <v>6.504171783368491</v>
       </c>
       <c r="M18">
-        <v>17.99397627528864</v>
+        <v>13.01879290022044</v>
       </c>
       <c r="N18">
-        <v>26.24701639259055</v>
+        <v>18.71388691154904</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.94813867034717</v>
+        <v>19.96161590260081</v>
       </c>
       <c r="C19">
-        <v>4.68647077123947</v>
+        <v>7.526967986933133</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.831276901103701</v>
+        <v>5.782591321992349</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.77191126696906</v>
+        <v>2.143988902594937</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.16332892193008</v>
+        <v>15.72021556015952</v>
       </c>
       <c r="L19">
-        <v>10.17012963094391</v>
+        <v>6.496793996794787</v>
       </c>
       <c r="M19">
-        <v>17.9923145258307</v>
+        <v>12.99124535896256</v>
       </c>
       <c r="N19">
-        <v>26.24862924657545</v>
+        <v>18.71950661105921</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.00634444690668</v>
+        <v>20.27831930803611</v>
       </c>
       <c r="C20">
-        <v>4.757593437302785</v>
+        <v>7.679560551624828</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.826896938131416</v>
+        <v>5.788710552441156</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.770808639432305</v>
+        <v>2.140484165435431</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.20346939217711</v>
+        <v>15.95988889082158</v>
       </c>
       <c r="L20">
-        <v>10.1682064132198</v>
+        <v>6.530201950925761</v>
       </c>
       <c r="M20">
-        <v>18.00000280033593</v>
+        <v>13.11544923625816</v>
       </c>
       <c r="N20">
-        <v>26.2414875349216</v>
+        <v>18.69465997312998</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.20648897226614</v>
+        <v>21.33025187872889</v>
       </c>
       <c r="C21">
-        <v>4.988434907975273</v>
+        <v>8.179481746581535</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.813238793270418</v>
+        <v>5.811861689959195</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.767218494398906</v>
+        <v>2.128791361304279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.34224170341858</v>
+        <v>16.75799600381393</v>
       </c>
       <c r="L21">
-        <v>10.16338396414134</v>
+        <v>6.646113033069491</v>
       </c>
       <c r="M21">
-        <v>18.02949998161143</v>
+        <v>13.53681360101157</v>
       </c>
       <c r="N21">
-        <v>26.21952900778541</v>
+        <v>18.61923950537184</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.34053924500842</v>
+        <v>22.00854428585159</v>
       </c>
       <c r="C22">
-        <v>5.133208309662484</v>
+        <v>8.497102777774705</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.805098981159858</v>
+        <v>5.828989674415928</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.764957055586394</v>
+        <v>2.121195973550709</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.43573981846555</v>
+        <v>17.2741422165204</v>
       </c>
       <c r="L22">
-        <v>10.16145158083702</v>
+        <v>6.724653785449379</v>
       </c>
       <c r="M22">
-        <v>18.05149305713548</v>
+        <v>13.81514765438778</v>
       </c>
       <c r="N22">
-        <v>26.20669721246666</v>
+        <v>18.57636239457234</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.26870832277119</v>
+        <v>21.64737257589454</v>
       </c>
       <c r="C23">
-        <v>5.056500062636947</v>
+        <v>8.328387800505585</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.809371504180717</v>
+        <v>5.819660969946105</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.766156284883245</v>
+        <v>2.125246535851943</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.38558881379089</v>
+        <v>16.99916808920127</v>
       </c>
       <c r="L23">
-        <v>10.16237152392258</v>
+        <v>6.68247633556886</v>
       </c>
       <c r="M23">
-        <v>18.03950767710933</v>
+        <v>13.66632869429893</v>
       </c>
       <c r="N23">
-        <v>26.21340666985983</v>
+        <v>18.59863218476075</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.0031304031448</v>
+        <v>20.26097251569891</v>
       </c>
       <c r="C24">
-        <v>4.753718149129639</v>
+        <v>7.671229920202936</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.827133479965132</v>
+        <v>5.78836492613216</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.770868758483073</v>
+        <v>2.140676281664398</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.20125010453411</v>
+        <v>15.94675359922741</v>
       </c>
       <c r="L24">
-        <v>10.16830585427646</v>
+        <v>6.528353685320942</v>
       </c>
       <c r="M24">
-        <v>17.99956676574413</v>
+        <v>13.10861302724539</v>
       </c>
       <c r="N24">
-        <v>26.24187206527746</v>
+        <v>18.69599508509207</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.73167732949463</v>
+        <v>18.72747974242034</v>
       </c>
       <c r="C25">
-        <v>4.401254679566022</v>
+        <v>6.920726027954959</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.84968207583465</v>
+        <v>5.762766271816168</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.776319387187605</v>
+        <v>2.157613601992601</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.01513418340499</v>
+        <v>14.78929291883351</v>
       </c>
       <c r="L25">
-        <v>10.17995706918104</v>
+        <v>6.373734090418716</v>
       </c>
       <c r="M25">
-        <v>17.96824597802708</v>
+        <v>12.52029903256314</v>
       </c>
       <c r="N25">
-        <v>26.27909047383874</v>
+        <v>18.82602340202375</v>
       </c>
       <c r="O25">
         <v>0</v>
